--- a/fig/TRENDYV11_summarytable.xlsx
+++ b/fig/TRENDYV11_summarytable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">modl</t>
   </si>
@@ -20,10 +20,13 @@
     <t xml:space="preserve">CN_coupled</t>
   </si>
   <si>
-    <t xml:space="preserve">l_croot_cleaf_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_croot_cveg_50</t>
+    <t xml:space="preserve">l_npp_gpp_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_croot_cveg_50.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_croot_cveg_50.y</t>
   </si>
   <si>
     <t xml:space="preserve">ALL</t>
@@ -425,212 +428,268 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>1.00000018405539</v>
+        <v>1.02135499455202</v>
       </c>
       <c r="D2" t="n">
         <v>1.00394064743892</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.00470738007252</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2943193944507</v>
+        <v>1.08481704138362</v>
       </c>
       <c r="D3" t="n">
         <v>0.96128504168947</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.96128504168947</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="n">
-        <v>1.00584595931951</v>
+        <v>1.00013112359679</v>
       </c>
       <c r="D4" t="n">
         <v>1.12373077656944</v>
       </c>
+      <c r="E4" t="n">
+        <v>1.12373077656944</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5"/>
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.21616266309143</v>
+      </c>
       <c r="D5"/>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.05500273425127</v>
+      </c>
       <c r="D7"/>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.82090250018935</v>
+        <v>0.985984354864879</v>
       </c>
       <c r="D8" t="n">
         <v>0.96662854244519</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.96662854244519</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>1.28577794811909</v>
+        <v>1.00041876739518</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.630376300799585</v>
+        <v>0.952958350981462</v>
       </c>
       <c r="D10" t="n">
         <v>1.0218504148142</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.0218504148142</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11"/>
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.983055539154761</v>
+      </c>
       <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12"/>
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.01389250888966</v>
+      </c>
       <c r="D12" t="n">
         <v>1.18424273603795</v>
       </c>
+      <c r="E12" t="n">
+        <v>1.18424273603795</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13"/>
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.29541662146928</v>
+      </c>
       <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.985712165345775</v>
       </c>
       <c r="D14" t="n">
         <v>0.769048174069157</v>
       </c>
+      <c r="E14" t="n">
+        <v>0.769048174069157</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15"/>
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.05641211531007</v>
+      </c>
       <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>0.879297364984893</v>
+        <v>0.901895805116912</v>
       </c>
       <c r="D16" t="n">
         <v>1.02249163893551</v>
       </c>
+      <c r="E16" t="n">
+        <v>1.02249163893551</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1.19774533691207</v>
+        <v>1.05932650474348</v>
       </c>
       <c r="D17" t="n">
         <v>1.15428851778262</v>
       </c>
+      <c r="E17" t="n">
+        <v>1.15428851778262</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18"/>
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.00786491781894</v>
+      </c>
       <c r="D18" t="n">
+        <v>0.995710039544549</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.995710039544549</v>
       </c>
     </row>

--- a/fig/TRENDYV11_summarytable.xlsx
+++ b/fig/TRENDYV11_summarytable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">modl</t>
   </si>
@@ -20,7 +20,10 @@
     <t xml:space="preserve">CN_coupled</t>
   </si>
   <si>
-    <t xml:space="preserve">l_croot_cleaf_50</t>
+    <t xml:space="preserve">l_cveg_star_npp_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_npp_gpp_50</t>
   </si>
   <si>
     <t xml:space="preserve">l_croot_cveg_50</t>
@@ -29,6 +32,12 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
+    <t xml:space="preserve">C only models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN coupled models</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLASSIC</t>
   </si>
   <si>
@@ -41,7 +50,7 @@
     <t xml:space="preserve">LPJ</t>
   </si>
   <si>
-    <t xml:space="preserve">ORCHIDEEv3</t>
+    <t xml:space="preserve">ORCHIDEE</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
@@ -425,45 +434,53 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>1.00000018405539</v>
+        <v>0.991829820949741</v>
       </c>
       <c r="D2" t="n">
-        <v>1.00394064743892</v>
+        <v>1.02242926486176</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.00408562227781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="B3"/>
       <c r="C3" t="n">
-        <v>1.2943193944507</v>
+        <v>0.934223957281186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.96128504168947</v>
+        <v>1.04395742207106</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.03239506325047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
-        <v>1.00584595931951</v>
+        <v>1.02840901912207</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12373077656944</v>
+        <v>1.00000000011517</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -471,166 +488,260 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.10335489244336</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08481704138362</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.96128504168947</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6" t="n">
+        <v>0.934572303026595</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.00013112359679</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.12373077656944</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
+        <v>9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.47928943969862</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.21616266309143</v>
+      </c>
+      <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1.82090250018935</v>
+        <v>1.0363617949439</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96662854244519</v>
+        <v>0.96029685440476</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.974022062245863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>1.28577794811909</v>
+        <v>0.941802806251319</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
+        <v>1.05500273425127</v>
+      </c>
+      <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.630376300799585</v>
+        <v>0.711143279101877</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0218504148142</v>
+        <v>0.985984354864879</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.96662854244519</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.18064362266301</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.00041876739518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12"/>
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.00661124477766</v>
+      </c>
       <c r="D12" t="n">
-        <v>1.18424273603795</v>
+        <v>0.952958350981462</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0218504148142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.07156983903359</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.983055539154761</v>
+      </c>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.95537656189622</v>
       </c>
       <c r="D14" t="n">
-        <v>0.769048174069157</v>
+        <v>1.01389250888966</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.18424273603795</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.926885052248211</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.29541662146928</v>
+      </c>
+      <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>0.879297364984893</v>
+        <v>0.570936368975892</v>
       </c>
       <c r="D16" t="n">
-        <v>1.02249163893551</v>
+        <v>0.985712165345775</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.769048174069157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>1.19774533691207</v>
+        <v>0.987991379145261</v>
       </c>
       <c r="D17" t="n">
-        <v>1.15428851778262</v>
-      </c>
+        <v>1.05641211531007</v>
+      </c>
+      <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18"/>
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.640294912289554</v>
+      </c>
       <c r="D18" t="n">
+        <v>0.901895805116912</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.02249163893551</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.89272806048167</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.05932650474348</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.15428851778262</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.51983779180054</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.00786491781894</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.995710039544549</v>
       </c>
     </row>

--- a/fig/TRENDYV11_summarytable.xlsx
+++ b/fig/TRENDYV11_summarytable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">modl</t>
   </si>
@@ -20,24 +20,18 @@
     <t xml:space="preserve">CN_coupled</t>
   </si>
   <si>
-    <t xml:space="preserve">l_cveg_star_npp_50</t>
-  </si>
-  <si>
     <t xml:space="preserve">l_npp_gpp_50</t>
   </si>
   <si>
-    <t xml:space="preserve">l_croot_cveg_50</t>
+    <t xml:space="preserve">l_croot_cveg_50.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_croot_cveg_50.y</t>
   </si>
   <si>
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
-    <t xml:space="preserve">C only models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN coupled models</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLASSIC</t>
   </si>
   <si>
@@ -50,7 +44,7 @@
     <t xml:space="preserve">LPJ</t>
   </si>
   <si>
-    <t xml:space="preserve">ORCHIDEE</t>
+    <t xml:space="preserve">ORCHIDEEv3</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
@@ -444,109 +438,101 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="n">
-        <v>0.991829820949741</v>
+        <v>1.02135499455202</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02242926486176</v>
+        <v>1.00394064743892</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00408562227781</v>
+        <v>1.00470738007252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
-        <v>0.934223957281186</v>
+        <v>1.08481704138362</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04395742207106</v>
+        <v>0.96128504168947</v>
       </c>
       <c r="E3" t="n">
-        <v>1.03239506325047</v>
+        <v>0.96128504168947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="n">
-        <v>1.02840901912207</v>
+        <v>1.00013112359679</v>
       </c>
       <c r="D4" t="n">
-        <v>1.00000000011517</v>
+        <v>1.12373077656944</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.12373077656944</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1.10335489244336</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.08481704138362</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.96128504168947</v>
-      </c>
+        <v>1.21616266309143</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.934572303026595</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.00013112359679</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.12373077656944</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>1.47928943969862</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.21616266309143</v>
-      </c>
+        <v>1.05500273425127</v>
+      </c>
+      <c r="D7"/>
       <c r="E7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0363617949439</v>
+        <v>0.985984354864879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96029685440476</v>
+        <v>0.96662854244519</v>
       </c>
       <c r="E8" t="n">
-        <v>0.974022062245863</v>
+        <v>0.96662854244519</v>
       </c>
     </row>
     <row r="9">
@@ -554,31 +540,33 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0.941802806251319</v>
+        <v>1.00041876739518</v>
       </c>
       <c r="D9" t="n">
-        <v>1.05500273425127</v>
-      </c>
-      <c r="E9"/>
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.711143279101877</v>
+        <v>0.952958350981462</v>
       </c>
       <c r="D10" t="n">
-        <v>0.985984354864879</v>
+        <v>1.0218504148142</v>
       </c>
       <c r="E10" t="n">
-        <v>0.96662854244519</v>
+        <v>1.0218504148142</v>
       </c>
     </row>
     <row r="11">
@@ -586,33 +574,29 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.18064362266301</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.00041876739518</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+        <v>0.983055539154761</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1.00661124477766</v>
+        <v>1.01389250888966</v>
       </c>
       <c r="D12" t="n">
-        <v>0.952958350981462</v>
+        <v>1.18424273603795</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0218504148142</v>
+        <v>1.18424273603795</v>
       </c>
     </row>
     <row r="13">
@@ -620,14 +604,12 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>1.07156983903359</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.983055539154761</v>
-      </c>
+        <v>1.29541662146928</v>
+      </c>
+      <c r="D13"/>
       <c r="E13"/>
     </row>
     <row r="14">
@@ -635,16 +617,16 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>0.95537656189622</v>
+        <v>0.985712165345775</v>
       </c>
       <c r="D14" t="n">
-        <v>1.01389250888966</v>
+        <v>0.769048174069157</v>
       </c>
       <c r="E14" t="n">
-        <v>1.18424273603795</v>
+        <v>0.769048174069157</v>
       </c>
     </row>
     <row r="15">
@@ -652,14 +634,12 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>0.926885052248211</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.29541662146928</v>
-      </c>
+        <v>1.05641211531007</v>
+      </c>
+      <c r="D15"/>
       <c r="E15"/>
     </row>
     <row r="16">
@@ -667,16 +647,16 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>0.570936368975892</v>
+        <v>0.901895805116912</v>
       </c>
       <c r="D16" t="n">
-        <v>0.985712165345775</v>
+        <v>1.02249163893551</v>
       </c>
       <c r="E16" t="n">
-        <v>0.769048174069157</v>
+        <v>1.02249163893551</v>
       </c>
     </row>
     <row r="17">
@@ -684,64 +664,32 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>0.987991379145261</v>
+        <v>1.05932650474348</v>
       </c>
       <c r="D17" t="n">
-        <v>1.05641211531007</v>
-      </c>
-      <c r="E17"/>
+        <v>1.15428851778262</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.15428851778262</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>0.640294912289554</v>
+        <v>1.00786491781894</v>
       </c>
       <c r="D18" t="n">
-        <v>0.901895805116912</v>
+        <v>0.995710039544549</v>
       </c>
       <c r="E18" t="n">
-        <v>1.02249163893551</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.89272806048167</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.05932650474348</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.15428851778262</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.51983779180054</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.00786491781894</v>
-      </c>
-      <c r="E20" t="n">
         <v>0.995710039544549</v>
       </c>
     </row>
